--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T02:13:14+00:00</t>
+    <t>2022-05-15T03:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T03:44:39+00:00</t>
+    <t>2022-05-15T04:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:01:28+00:00</t>
+    <t>2022-05-15T04:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:22:03+00:00</t>
+    <t>2022-05-15T04:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:40:19+00:00</t>
+    <t>2022-05-15T04:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:50:30+00:00</t>
+    <t>2022-05-15T05:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:04:41+00:00</t>
+    <t>2022-05-15T05:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:59:51+00:00</t>
+    <t>2022-05-15T06:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:10:42+00:00</t>
+    <t>2022-05-15T06:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:58:01+00:00</t>
+    <t>2022-05-15T08:00:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:00:52+00:00</t>
+    <t>2022-05-15T08:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:35:02+00:00</t>
+    <t>2022-05-15T20:34:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T20:34:26+00:00</t>
+    <t>2022-05-15T21:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:11:53+00:00</t>
+    <t>2022-05-15T21:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:22:54+00:00</t>
+    <t>2022-05-15T23:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:20:03+00:00</t>
+    <t>2022-05-16T02:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T06:42:02+00:00</t>
+    <t>2022-05-16T08:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T09:08:52+00:00</t>
+    <t>2022-05-16T13:03:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:03:47+00:00</t>
+    <t>2022-05-16T13:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:13:28+00:00</t>
+    <t>2022-05-16T13:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:28:44+00:00</t>
+    <t>2022-05-16T13:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:35:07+00:00</t>
+    <t>2022-05-16T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T20:51:46+00:00</t>
+    <t>2022-05-16T21:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:03:30+00:00</t>
+    <t>2022-05-16T21:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:18:12+00:00</t>
+    <t>2022-05-16T21:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:46:46+00:00</t>
+    <t>2022-05-16T22:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:00:55+00:00</t>
+    <t>2022-05-16T22:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:31:13+00:00</t>
+    <t>2022-05-16T22:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:59:36+00:00</t>
+    <t>2022-05-17T00:01:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:01:29+00:00</t>
+    <t>2022-05-17T00:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:36:56+00:00</t>
+    <t>2022-05-17T01:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T01:32:43+00:00</t>
+    <t>2022-05-17T02:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:11:59+00:00</t>
+    <t>2022-05-17T02:27:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:27:04+00:00</t>
+    <t>2022-05-17T21:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T21:52:12+00:00</t>
+    <t>2022-05-18T09:42:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T09:42:35+00:00</t>
+    <t>2022-05-18T10:11:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T10:11:21+00:00</t>
+    <t>2022-05-18T22:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T22:24:04+00:00</t>
+    <t>2022-05-18T22:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T22:54:45+00:00</t>
+    <t>2022-05-18T23:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T23:36:27+00:00</t>
+    <t>2022-05-19T03:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:03:33+00:00</t>
+    <t>2022-05-19T07:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:15:49+00:00</t>
+    <t>2022-05-19T07:35:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:35:54+00:00</t>
+    <t>2022-05-19T07:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:59:09+00:00</t>
+    <t>2022-05-19T08:14:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T08:14:30+00:00</t>
+    <t>2022-05-19T08:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T08:29:28+00:00</t>
+    <t>2022-05-19T21:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.3</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T21:25:03+00:00</t>
+    <t>2022-05-19T22:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:15:07+00:00</t>
+    <t>2022-05-19T22:22:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:22:45+00:00</t>
+    <t>2022-05-19T22:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:40:57+00:00</t>
+    <t>2022-05-20T01:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T01:59:29+00:00</t>
+    <t>2022-05-20T02:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T02:53:22+00:00</t>
+    <t>2022-05-20T03:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T03:10:08+00:00</t>
+    <t>2022-05-20T22:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T22:14:29+00:00</t>
+    <t>2022-05-21T02:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:00:04+00:00</t>
+    <t>2022-05-21T02:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:55:26+00:00</t>
+    <t>2022-05-21T04:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T04:45:59+00:00</t>
+    <t>2022-05-26T10:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:02:22+00:00</t>
+    <t>2022-05-26T10:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:25:08+00:00</t>
+    <t>2022-06-18T09:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T09:15:45+00:00</t>
+    <t>2022-06-18T22:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T22:14:23+00:00</t>
+    <t>2022-06-19T00:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T00:56:38+00:00</t>
+    <t>2022-06-25T22:06:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-25T22:06:20+00:00</t>
+    <t>2022-06-26T00:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T00:19:47+00:00</t>
+    <t>2022-06-26T03:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T03:25:27+00:00</t>
+    <t>2022-06-26T08:16:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T08:16:20+00:00</t>
+    <t>2022-06-26T13:51:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T13:51:41+00:00</t>
+    <t>2022-06-26T21:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T21:50:55+00:00</t>
+    <t>2022-06-27T01:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:01:02+00:00</t>
+    <t>2022-06-27T01:36:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:36:25+00:00</t>
+    <t>2022-06-27T02:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T02:56:07+00:00</t>
+    <t>2022-06-27T06:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T06:28:37+00:00</t>
+    <t>2022-06-27T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T09:20:01+00:00</t>
+    <t>2022-06-27T10:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T10:19:40+00:00</t>
+    <t>2022-06-27T12:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T12:59:10+00:00</t>
+    <t>2022-06-27T22:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T22:33:31+00:00</t>
+    <t>2022-06-28T04:43:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T04:43:28+00:00</t>
+    <t>2022-06-28T06:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
+++ b/ValueSet-jami-valueSet-ePreOrderUsageCode-16digits.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T06:25:36+00:00</t>
+    <t>2022-06-29T08:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
